--- a/Inward/wwwroot/Files/ExcelDemo.xlsx
+++ b/Inward/wwwroot/Files/ExcelDemo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GCM\Inward\wwwroot\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1E4FBD-3DBC-4820-98B1-B13ACC4B1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -48,25 +47,22 @@
     <t>applicationno</t>
   </si>
   <si>
-    <t>userid</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t>demowork10@gmail.com</t>
   </si>
   <si>
-    <t>general/sc/st/ews/obc/scst</t>
-  </si>
-  <si>
     <t>male/female</t>
+  </si>
+  <si>
+    <t>general/sc/st/ews/obc/sebc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,24 +384,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,22 +424,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>9999999999</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -451,15 +445,12 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8D7B96D1-0255-4E42-AFEB-D217A0ED204D}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
